--- a/docs/tasks.xlsx
+++ b/docs/tasks.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Iterations!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tasks!$A$1:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tasks!$A$1:$H$94</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>Requirement</t>
   </si>
@@ -285,6 +285,87 @@
   </si>
   <si>
     <t>Fixing bugs</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Interface to game and UI</t>
+  </si>
+  <si>
+    <t>The AI should be able to interface with the game (to play it) and the UI (to give feedback).</t>
+  </si>
+  <si>
+    <t>AI claiming and populating</t>
+  </si>
+  <si>
+    <t>The AI should be able to claim and populate territories intelligently.</t>
+  </si>
+  <si>
+    <t>AI drafting</t>
+  </si>
+  <si>
+    <t>AI attacking</t>
+  </si>
+  <si>
+    <t>The AI should be able to intelligently decide when and where to attack.</t>
+  </si>
+  <si>
+    <t>The AI should be able to intelligently decide where to draft armies to protect its interests and facilitate attack.</t>
+  </si>
+  <si>
+    <t>AI maneuvering</t>
+  </si>
+  <si>
+    <t>The AI should be able to maneuver troops to protect its interests and facilitate attack.</t>
+  </si>
+  <si>
+    <t>AI card trading</t>
+  </si>
+  <si>
+    <t>The AI should be able to decide when to trade cards, and should know the value of gaining cards.</t>
+  </si>
+  <si>
+    <t>Interface AI with game engine</t>
+  </si>
+  <si>
+    <t>Interface AI with user interface</t>
+  </si>
+  <si>
+    <t>Develop an evaluation function for claiming and populating</t>
+  </si>
+  <si>
+    <t>Implement minimax search to allow AI to choose territories to claim or populate</t>
+  </si>
+  <si>
+    <t>Augment evaluation function and search to support drafting</t>
+  </si>
+  <si>
+    <t>Augment evaluation function and search to support attacking</t>
+  </si>
+  <si>
+    <t>Augment evaluation function and search to support maneuvering</t>
+  </si>
+  <si>
+    <t>Augment evaluation function and search to support card gathering and trading</t>
+  </si>
+  <si>
+    <t>Document AI strategy</t>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Implement logging to file</t>
+  </si>
+  <si>
+    <t>Tune AI</t>
+  </si>
+  <si>
+    <t>Implement genetic algorithm to tune the AI</t>
+  </si>
+  <si>
+    <t>Started</t>
   </si>
 </sst>
 </file>
@@ -430,7 +511,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -442,6 +523,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -747,11 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,7 +849,7 @@
     <col min="3" max="3" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -771,16 +859,22 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -790,8 +884,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -801,8 +898,11 @@
       <c r="C4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -810,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -821,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -832,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -843,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
+    <row r="11" spans="1:4" s="1" customFormat="1">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -851,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -862,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -873,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -884,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>3</v>
       </c>
@@ -895,7 +995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1223,6 +1323,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C4"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1230,11 +1335,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D9"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,6 +1430,9 @@
       <c r="E4" t="s">
         <v>47</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -1342,6 +1450,9 @@
       <c r="E5" t="s">
         <v>61</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -1359,6 +1470,9 @@
       <c r="E6" t="s">
         <v>60</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
@@ -1376,6 +1490,9 @@
       <c r="E7" t="s">
         <v>59</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
@@ -1393,6 +1510,9 @@
       <c r="E8" t="s">
         <v>58</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
@@ -1409,6 +1529,111 @@
       </c>
       <c r="E9" t="s">
         <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1425,11 +1650,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,18 +1701,18 @@
         <v>66</v>
       </c>
       <c r="J1" s="7">
-        <v>0.71736111111111101</v>
+        <v>0.98402777777777783</v>
       </c>
       <c r="K1" s="8">
         <f ca="1">NOW()</f>
-        <v>40362.551843287038</v>
+        <v>40363.713498958336</v>
       </c>
       <c r="L1" s="9">
         <f ca="1">IF(ISBLANK(J1),"",(K1-(TODAY()+J1)+IF(TODAY()+J1&lt;K1,0,1))*24)</f>
-        <v>20.02757222217042</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>17.507308333413675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="3">
         <v>1.2</v>
       </c>
@@ -1510,7 +1736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="3">
         <v>1.2</v>
       </c>
@@ -1534,7 +1760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -1554,14 +1780,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G12" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G27" si="0">E4-F4</f>
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="3">
         <v>1.2</v>
       </c>
@@ -1585,7 +1811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="3">
         <v>1.2</v>
       </c>
@@ -1612,7 +1838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="3">
         <v>1.2</v>
       </c>
@@ -1639,7 +1865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>1.2</v>
       </c>
@@ -1666,7 +1892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>1.2</v>
       </c>
@@ -1693,7 +1919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -1717,7 +1943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="3">
         <v>1.2</v>
       </c>
@@ -1744,7 +1970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="3">
         <v>1.2</v>
       </c>
@@ -1771,7 +1997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="2">
         <v>1.2</v>
       </c>
@@ -1798,245 +2024,601 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
     <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1">
+      <c r="A28" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM(D14:D27)</f>
+        <v>56</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:G28" si="1">SUM(E14:E27)</f>
+        <v>56</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1"/>
+    <row r="30" spans="1:8" hidden="1"/>
+    <row r="31" spans="1:8" hidden="1"/>
+    <row r="32" spans="1:8" hidden="1">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
       <c r="H33" s="4"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1"/>
+    <row r="36" spans="1:8" hidden="1">
       <c r="H36" s="4"/>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+    <row r="37" spans="1:8" hidden="1"/>
+    <row r="38" spans="1:8" hidden="1"/>
+    <row r="39" spans="1:8" hidden="1">
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
-      <c r="C42" s="4"/>
+    <row r="40" spans="1:8" hidden="1"/>
+    <row r="41" spans="1:8" hidden="1"/>
+    <row r="42" spans="1:8" s="2" customFormat="1" hidden="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
+    <row r="43" spans="1:8" hidden="1">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="C45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
+    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="C46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="C47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1">
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="C49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1">
-      <c r="B50" s="4"/>
+    <row r="50" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="C50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1">
-      <c r="B51" s="4"/>
+    <row r="51" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1">
-      <c r="C52" s="6"/>
+    <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="C52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1">
-      <c r="C53" s="5"/>
+    <row r="53" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1">
-      <c r="C54" s="6"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1">
+    <row r="54" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1">
-      <c r="B56" s="4"/>
-      <c r="C56" s="6"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="C56" s="5"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1">
-      <c r="B57" s="4"/>
+    <row r="57" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1">
-      <c r="B58" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="C58" s="6"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1">
+    </row>
+    <row r="59" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B59" s="4"/>
       <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1">
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B60" s="4"/>
       <c r="C60" s="6"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1">
+    </row>
+    <row r="61" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B61" s="4"/>
       <c r="C61" s="6"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1">
+    <row r="62" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1">
+    </row>
+    <row r="63" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="B63" s="4"/>
       <c r="C63" s="6"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1">
+    <row r="64" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="B64" s="4"/>
+      <c r="C64" s="6"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="B65" s="4"/>
+      <c r="C65" s="6"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1">
+    <row r="66" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="C66" s="6"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+    <row r="67" spans="2:8" hidden="1"/>
+    <row r="68" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1">
+    <row r="70" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1">
+    </row>
+    <row r="72" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1">
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" ht="15" hidden="1" customHeight="1">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:8">
+    <row r="76" spans="2:8" ht="15" hidden="1" customHeight="1">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" hidden="1">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="2:8">
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:8">
+    <row r="78" spans="2:8" hidden="1">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="2:8" hidden="1">
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:8">
+    </row>
+    <row r="80" spans="2:8" hidden="1">
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
+      <c r="C82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" hidden="1">
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8">
-      <c r="C85" s="4"/>
+    <row r="85" spans="1:8" hidden="1">
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8">
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:8">
+    <row r="86" spans="1:8" hidden="1"/>
+    <row r="87" spans="1:8" hidden="1">
       <c r="H87" s="4"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
+      <c r="C88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" hidden="1">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" hidden="1">
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+    <row r="91" spans="1:8" hidden="1"/>
+    <row r="92" spans="1:8" s="2" customFormat="1" hidden="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" hidden="1">
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" hidden="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H91">
-    <filterColumn colId="0"/>
+  <autoFilter ref="A1:H94">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2.1"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="E1:E2 E14:E1048576">
+  <conditionalFormatting sqref="E1:E2 E29:E1048576">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>E1&lt;F1</formula>
     </cfRule>
@@ -2048,5 +2630,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="G13" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>